--- a/data/ReferenceErrorDetection_data_extended_annotation.xlsx
+++ b/data/ReferenceErrorDetection_data_extended_annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b78b8e360351019/_Dokumente/Studium/Master/Masterarbeit/_citation-verification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1093" documentId="13_ncr:1_{AB327D43-2820-4AC1-8F02-08CAE684D3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC470435-68EF-4F86-8C77-E7BAD0F70307}"/>
+  <xr:revisionPtr revIDLastSave="1125" documentId="13_ncr:1_{AB327D43-2820-4AC1-8F02-08CAE684D3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9625DD8-59C0-49A5-9024-D7E9C01753B6}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="6880" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Tabelle1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$251</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10617" uniqueCount="2359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10632" uniqueCount="2360">
   <si>
     <t>Source</t>
   </si>
@@ -7245,6 +7245,9 @@
   </si>
   <si>
     <t>Substantiated</t>
+  </si>
+  <si>
+    <t>Previously Partially Substantiated</t>
   </si>
 </sst>
 </file>
@@ -7340,7 +7343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -7376,11 +7379,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7501,6 +7515,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8688,10 +8706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB251"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AC251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8721,9 +8740,10 @@
     <col min="26" max="26" width="12.85546875" customWidth="1"/>
     <col min="27" max="27" width="18.5703125" style="49" customWidth="1"/>
     <col min="28" max="28" width="20.42578125" customWidth="1"/>
+    <col min="29" max="29" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8808,8 +8828,11 @@
       <c r="AB1" s="10" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="AC1" s="50" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -8895,7 +8918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8981,7 +9004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -9067,7 +9090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -9153,7 +9176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -9239,7 +9262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -9325,7 +9348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -9411,7 +9434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -9497,7 +9520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -9583,7 +9606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -9669,7 +9692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -9755,7 +9778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -9841,7 +9864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -9927,7 +9950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -10013,7 +10036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -10099,7 +10122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -10185,7 +10208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -10271,7 +10294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -10357,7 +10380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -10443,7 +10466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -10529,7 +10552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -10615,7 +10638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -10701,7 +10724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -10787,7 +10810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -10873,7 +10896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -10959,7 +10982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -11045,7 +11068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -11131,7 +11154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -11217,7 +11240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -11303,7 +11326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -11389,7 +11412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -11475,7 +11498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -11561,7 +11584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -11647,7 +11670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -11733,7 +11756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -11819,7 +11842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -11905,7 +11928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -11991,7 +12014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -12077,7 +12100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -12163,7 +12186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -12249,7 +12272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -12335,7 +12358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -12421,7 +12444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -12507,7 +12530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -12593,7 +12616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -12679,7 +12702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -12765,7 +12788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -12851,7 +12874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -12937,7 +12960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -13023,7 +13046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -13109,7 +13132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -13195,7 +13218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -13281,7 +13304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -13367,7 +13390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -13453,7 +13476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
@@ -13539,7 +13562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>17</v>
       </c>
@@ -13625,7 +13648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -13711,7 +13734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -13797,7 +13820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -13883,7 +13906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -13969,7 +13992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -14055,7 +14078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -14141,7 +14164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -14227,7 +14250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -14313,7 +14336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -14399,7 +14422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -14485,7 +14508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -14571,7 +14594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -14657,7 +14680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -14743,7 +14766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -14829,7 +14852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" s="33" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>17</v>
       </c>
@@ -14915,7 +14938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -15001,7 +15024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>17</v>
       </c>
@@ -15087,7 +15110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
@@ -15171,7 +15194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -15257,7 +15280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -15343,7 +15366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>17</v>
       </c>
@@ -15429,7 +15452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
@@ -15515,7 +15538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -15601,7 +15624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>540</v>
       </c>
@@ -15687,7 +15710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>540</v>
       </c>
@@ -15773,7 +15796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>540</v>
       </c>
@@ -15859,7 +15882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>540</v>
       </c>
@@ -15945,7 +15968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>540</v>
       </c>
@@ -16031,7 +16054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>540</v>
       </c>
@@ -16117,7 +16140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>540</v>
       </c>
@@ -16203,7 +16226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>583</v>
       </c>
@@ -16288,8 +16311,11 @@
       <c r="AB88" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="AC88" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>583</v>
       </c>
@@ -16374,8 +16400,11 @@
       <c r="AB89" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="AC89" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>600</v>
       </c>
@@ -16460,8 +16489,11 @@
       <c r="AB90" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="AC90" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>610</v>
       </c>
@@ -16546,8 +16578,11 @@
       <c r="AB91" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="AC91" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>620</v>
       </c>
@@ -16631,7 +16666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>620</v>
       </c>
@@ -16715,7 +16750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>620</v>
       </c>
@@ -16799,7 +16834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>636</v>
       </c>
@@ -16882,8 +16917,11 @@
       <c r="AB95" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="AC95" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>636</v>
       </c>
@@ -16965,7 +17003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>636</v>
       </c>
@@ -17047,7 +17085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>636</v>
       </c>
@@ -17133,7 +17171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>636</v>
       </c>
@@ -17217,7 +17255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>636</v>
       </c>
@@ -17299,7 +17337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>636</v>
       </c>
@@ -17383,7 +17421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>636</v>
       </c>
@@ -17467,7 +17505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>636</v>
       </c>
@@ -17549,7 +17587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>636</v>
       </c>
@@ -17635,7 +17673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>636</v>
       </c>
@@ -17716,8 +17754,11 @@
       <c r="AB105" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="AC105" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>636</v>
       </c>
@@ -17798,8 +17839,11 @@
       <c r="AB106" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="AC106" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>636</v>
       </c>
@@ -17883,7 +17927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>636</v>
       </c>
@@ -17968,8 +18012,11 @@
       <c r="AB108" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="AC108" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>636</v>
       </c>
@@ -18051,7 +18098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>636</v>
       </c>
@@ -18133,7 +18180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>636</v>
       </c>
@@ -18215,7 +18262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>636</v>
       </c>
@@ -18299,7 +18346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>636</v>
       </c>
@@ -18383,7 +18430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>636</v>
       </c>
@@ -18469,7 +18516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>636</v>
       </c>
@@ -18553,7 +18600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>636</v>
       </c>
@@ -18635,7 +18682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>636</v>
       </c>
@@ -18718,8 +18765,11 @@
       <c r="AB117" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="AC117" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>636</v>
       </c>
@@ -18803,7 +18853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>636</v>
       </c>
@@ -18887,7 +18937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>636</v>
       </c>
@@ -18971,7 +19021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>636</v>
       </c>
@@ -19053,7 +19103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>636</v>
       </c>
@@ -19137,7 +19187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>636</v>
       </c>
@@ -19219,7 +19269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>636</v>
       </c>
@@ -19303,7 +19353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>636</v>
       </c>
@@ -19387,7 +19437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>636</v>
       </c>
@@ -19471,7 +19521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>636</v>
       </c>
@@ -19555,7 +19605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>636</v>
       </c>
@@ -19639,7 +19689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>636</v>
       </c>
@@ -19723,7 +19773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>636</v>
       </c>
@@ -19805,7 +19855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>636</v>
       </c>
@@ -19890,8 +19940,11 @@
       <c r="AB131" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="132" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="AC131" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>636</v>
       </c>
@@ -19975,7 +20028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>636</v>
       </c>
@@ -20057,7 +20110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>636</v>
       </c>
@@ -20143,7 +20196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>636</v>
       </c>
@@ -20227,7 +20280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>636</v>
       </c>
@@ -20308,8 +20361,11 @@
       <c r="AB136" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="137" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="AC136" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>636</v>
       </c>
@@ -20391,7 +20447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>636</v>
       </c>
@@ -20475,7 +20531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>636</v>
       </c>
@@ -20560,8 +20616,11 @@
       <c r="AB139" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="140" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="AC139" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>636</v>
       </c>
@@ -20645,7 +20704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>636</v>
       </c>
@@ -20729,7 +20788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>636</v>
       </c>
@@ -20814,8 +20873,11 @@
       <c r="AB142" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="143" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="AC142" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>636</v>
       </c>
@@ -20899,7 +20961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>636</v>
       </c>
@@ -20983,7 +21045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>636</v>
       </c>
@@ -21065,7 +21127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>636</v>
       </c>
@@ -21149,7 +21211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>636</v>
       </c>
@@ -21233,7 +21295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>636</v>
       </c>
@@ -21317,7 +21379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>636</v>
       </c>
@@ -21401,7 +21463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>636</v>
       </c>
@@ -21485,7 +21547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>636</v>
       </c>
@@ -21569,7 +21631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>636</v>
       </c>
@@ -21651,7 +21713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>636</v>
       </c>
@@ -21735,7 +21797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>636</v>
       </c>
@@ -21819,7 +21881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>636</v>
       </c>
@@ -21903,7 +21965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>636</v>
       </c>
@@ -21984,8 +22046,11 @@
       <c r="AB156" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="157" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="AC156" s="51" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>636</v>
       </c>
@@ -22069,7 +22134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>636</v>
       </c>
@@ -22153,7 +22218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>636</v>
       </c>
@@ -22237,7 +22302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>636</v>
       </c>
@@ -22319,7 +22384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>636</v>
       </c>
@@ -22403,7 +22468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>636</v>
       </c>
@@ -22485,7 +22550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>636</v>
       </c>
@@ -22567,7 +22632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>636</v>
       </c>
@@ -22649,7 +22714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>636</v>
       </c>
@@ -22731,7 +22796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>636</v>
       </c>
@@ -22813,7 +22878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>636</v>
       </c>
@@ -22895,7 +22960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>636</v>
       </c>
@@ -22977,7 +23042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>636</v>
       </c>
@@ -23059,7 +23124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:28" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>636</v>
       </c>
@@ -23141,7 +23206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>636</v>
       </c>
@@ -23223,7 +23288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>636</v>
       </c>
@@ -23305,7 +23370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>636</v>
       </c>
@@ -23385,7 +23450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>636</v>
       </c>
@@ -23465,7 +23530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>636</v>
       </c>
@@ -23547,7 +23612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>636</v>
       </c>
@@ -23629,7 +23694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>636</v>
       </c>
@@ -23711,7 +23776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>636</v>
       </c>
@@ -23793,7 +23858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>636</v>
       </c>
@@ -23875,7 +23940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>636</v>
       </c>
@@ -23957,7 +24022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>636</v>
       </c>
@@ -24039,7 +24104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>636</v>
       </c>
@@ -24121,7 +24186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>636</v>
       </c>
@@ -24203,7 +24268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>636</v>
       </c>
@@ -24285,7 +24350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>636</v>
       </c>
@@ -24367,7 +24432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>636</v>
       </c>
@@ -24449,7 +24514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>636</v>
       </c>
@@ -24531,7 +24596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>636</v>
       </c>
@@ -24613,7 +24678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>636</v>
       </c>
@@ -24695,7 +24760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>636</v>
       </c>
@@ -24777,7 +24842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>636</v>
       </c>
@@ -24859,7 +24924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>636</v>
       </c>
@@ -24941,7 +25006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>636</v>
       </c>
@@ -25023,7 +25088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>636</v>
       </c>
@@ -25105,7 +25170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>636</v>
       </c>
@@ -25187,7 +25252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>636</v>
       </c>
@@ -25269,7 +25334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>636</v>
       </c>
@@ -25351,7 +25416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>636</v>
       </c>
@@ -25433,7 +25498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>636</v>
       </c>
@@ -25515,7 +25580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>636</v>
       </c>
@@ -25597,7 +25662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>636</v>
       </c>
@@ -25679,7 +25744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:28" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" s="33" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
         <v>636</v>
       </c>
@@ -25761,7 +25826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>636</v>
       </c>
@@ -25843,7 +25908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>636</v>
       </c>
@@ -25925,7 +25990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>636</v>
       </c>
@@ -26007,7 +26072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>636</v>
       </c>
@@ -26089,7 +26154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>636</v>
       </c>
@@ -26171,7 +26236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>636</v>
       </c>
@@ -26253,7 +26318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>636</v>
       </c>
@@ -26335,7 +26400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>636</v>
       </c>
@@ -26417,7 +26482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>636</v>
       </c>
@@ -26499,7 +26564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>636</v>
       </c>
@@ -26581,7 +26646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>636</v>
       </c>
@@ -26663,7 +26728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>636</v>
       </c>
@@ -26745,7 +26810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>636</v>
       </c>
@@ -26827,7 +26892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>636</v>
       </c>
@@ -26909,7 +26974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>636</v>
       </c>
@@ -26991,7 +27056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>636</v>
       </c>
@@ -27073,7 +27138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>636</v>
       </c>
@@ -27155,7 +27220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>636</v>
       </c>
@@ -27237,7 +27302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>636</v>
       </c>
@@ -27319,7 +27384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>636</v>
       </c>
@@ -27401,7 +27466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>636</v>
       </c>
@@ -27483,7 +27548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>636</v>
       </c>
@@ -27565,7 +27630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>636</v>
       </c>
@@ -27647,7 +27712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>636</v>
       </c>
@@ -27729,7 +27794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>636</v>
       </c>
@@ -27811,7 +27876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>636</v>
       </c>
@@ -27893,7 +27958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>636</v>
       </c>
@@ -27975,7 +28040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>636</v>
       </c>
@@ -28057,7 +28122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>636</v>
       </c>
@@ -28139,7 +28204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>636</v>
       </c>
@@ -28221,7 +28286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>636</v>
       </c>
@@ -28303,7 +28368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>636</v>
       </c>
@@ -28385,7 +28450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>636</v>
       </c>
@@ -28467,7 +28532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>636</v>
       </c>
@@ -28549,7 +28614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>636</v>
       </c>
@@ -28631,7 +28696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>636</v>
       </c>
@@ -28713,7 +28778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>636</v>
       </c>
@@ -28795,7 +28860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>636</v>
       </c>
@@ -28877,7 +28942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>636</v>
       </c>
@@ -28959,7 +29024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>636</v>
       </c>
@@ -29041,7 +29106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>636</v>
       </c>
@@ -29123,7 +29188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>636</v>
       </c>
@@ -29205,7 +29270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>636</v>
       </c>
@@ -29287,7 +29352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>636</v>
       </c>
@@ -29369,7 +29434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>636</v>
       </c>
@@ -29451,7 +29516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>636</v>
       </c>
@@ -29533,7 +29598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>636</v>
       </c>
@@ -29615,7 +29680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>636</v>
       </c>
@@ -29697,7 +29762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1784</v>
       </c>
@@ -29780,10 +29845,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB251" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:AB230">
-      <sortCondition ref="B1:B251"/>
-    </sortState>
+  <autoFilter ref="A1:AC251" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="28">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
